--- a/Comparison3.xlsx
+++ b/Comparison3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pindiche\Desktop\QcarProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5353EF-F3A4-4517-BD40-7AAB480C4FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7DE5BF-52E0-45D7-8730-4A4AB36A5B8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{468E8241-07BD-4C8D-B197-99E2DBA51C17}"/>
   </bookViews>
